--- a/flag/AQB_classification/species_list_10071623_NJMh.xlsx
+++ b/flag/AQB_classification/species_list_10071623_NJMh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmat471/HD/GitHub/bioinfRhints/flag/AQB_classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDEA9C6-8EEB-B741-AF6B-C73050605FFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0546FB1-4524-564D-92C6-56713F24FBD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13460" yWindow="500" windowWidth="35160" windowHeight="20740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23520" yWindow="500" windowWidth="35160" windowHeight="20740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species_list_10071623_NJMf" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5741" uniqueCount="3116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6315" uniqueCount="3583">
   <si>
     <t>Download script?</t>
   </si>
@@ -9373,6 +9373,1407 @@
   </si>
   <si>
     <t>Can't find a genome for this strain specifically</t>
+  </si>
+  <si>
+    <t>From GTDB:</t>
+  </si>
+  <si>
+    <t>GB_GCA_000353875.1</t>
+  </si>
+  <si>
+    <t>californiense</t>
+  </si>
+  <si>
+    <t>RS_GCF_015775515.1</t>
+  </si>
+  <si>
+    <t>laminatus</t>
+  </si>
+  <si>
+    <t>GB_GCA_003599815.1</t>
+  </si>
+  <si>
+    <t>fodinae</t>
+  </si>
+  <si>
+    <t>RS_GCF_014467015.1</t>
+  </si>
+  <si>
+    <t>caledoniensis</t>
+  </si>
+  <si>
+    <t>RS_GCF_900142275.1</t>
+  </si>
+  <si>
+    <t>californiensis</t>
+  </si>
+  <si>
+    <t>RS_GCF_022539405.1</t>
+  </si>
+  <si>
+    <t>carboxydovora</t>
+  </si>
+  <si>
+    <t>RS_GCF_002216005.1</t>
+  </si>
+  <si>
+    <t>trueperi</t>
+  </si>
+  <si>
+    <t>RS_GCF_000020005.1</t>
+  </si>
+  <si>
+    <t>RS_GCF_000174415.1</t>
+  </si>
+  <si>
+    <t>alkaliphilus</t>
+  </si>
+  <si>
+    <t>RS_GCF_022558445.1</t>
+  </si>
+  <si>
+    <t>RS_GCF_000085865.1</t>
+  </si>
+  <si>
+    <t>RS_GCF_001886855.1</t>
+  </si>
+  <si>
+    <t>RS_GCF_030316605.1</t>
+  </si>
+  <si>
+    <t>RS_GCF_900637845.1</t>
+  </si>
+  <si>
+    <t>RS_GCF_009767585.1</t>
+  </si>
+  <si>
+    <t>RS_GCF_900465355.1</t>
+  </si>
+  <si>
+    <t>RS_GCF_000284335.1</t>
+  </si>
+  <si>
+    <t>RS_GCF_002119425.1</t>
+  </si>
+  <si>
+    <t>RS_GCF_000469585.1</t>
+  </si>
+  <si>
+    <t>RS_GCF_000146065.2</t>
+  </si>
+  <si>
+    <t>GB_GCA_030765845.1</t>
+  </si>
+  <si>
+    <t>RS_GCF_000378005.1</t>
+  </si>
+  <si>
+    <t>RS_GCF_000513475.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_002479255.1</t>
+  </si>
+  <si>
+    <t>RS_GCF_000526155.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_023617515.1</t>
+  </si>
+  <si>
+    <t>RS_GCF_000512235.1</t>
+  </si>
+  <si>
+    <t>RS_GCF_000021645.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_030765455.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_003244105.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_003134695.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_001618605.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_030765645.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_000493945.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_030765365.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_030765405.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_000403035.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_030765525.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_018725125.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_003864455.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_008086245.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_000091165.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_000739515.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_002869225.1</t>
+  </si>
+  <si>
+    <t>RS_GCF_000341545.2</t>
+  </si>
+  <si>
+    <t>GB_GCA_030765805.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_009917695.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_003290465.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_004195035.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_004195045.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_000522425.1</t>
+  </si>
+  <si>
+    <t>RS_GCF_000212395.1</t>
+  </si>
+  <si>
+    <t>RS_GCF_003057965.1</t>
+  </si>
+  <si>
+    <t>RS_GCF_001547735.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_030765135.1</t>
+  </si>
+  <si>
+    <t>GB_GCA_002011615.1</t>
+  </si>
+  <si>
+    <t>Auribacterota</t>
+  </si>
+  <si>
+    <t>Auribacteria</t>
+  </si>
+  <si>
+    <t>Auribacterales</t>
+  </si>
+  <si>
+    <t>Auribacteraceae</t>
+  </si>
+  <si>
+    <t>Auribacter</t>
+  </si>
+  <si>
+    <t>Bacillota_D</t>
+  </si>
+  <si>
+    <t>Proteinivoracia</t>
+  </si>
+  <si>
+    <t>Proteinivoracales</t>
+  </si>
+  <si>
+    <t>Proteinivoraceae</t>
+  </si>
+  <si>
+    <t>Alkalicella</t>
+  </si>
+  <si>
+    <t>Anaerobranca</t>
+  </si>
+  <si>
+    <t>Natranaerobiia</t>
+  </si>
+  <si>
+    <t>Natranaerobiales</t>
+  </si>
+  <si>
+    <t>Natranaerofabaceae</t>
+  </si>
+  <si>
+    <t>Natranaerofaba</t>
+  </si>
+  <si>
+    <t>Natranaerobiaceae</t>
+  </si>
+  <si>
+    <t>Natranaerobius_A</t>
+  </si>
+  <si>
+    <t>Natranaerobius</t>
+  </si>
+  <si>
+    <t>Dethiobacteria</t>
+  </si>
+  <si>
+    <t>Dethiobacterales</t>
+  </si>
+  <si>
+    <t>Dethiobacteraceae</t>
+  </si>
+  <si>
+    <t>Dethiobacter</t>
+  </si>
+  <si>
+    <t>SKNC01</t>
+  </si>
+  <si>
+    <t>Contubernalis</t>
+  </si>
+  <si>
+    <t>Bacillota_I</t>
+  </si>
+  <si>
+    <t>Bacilli_A</t>
+  </si>
+  <si>
+    <t>Mycoplasmatales</t>
+  </si>
+  <si>
+    <t>Metamycoplasmataceae</t>
+  </si>
+  <si>
+    <t>Metamycoplasma</t>
+  </si>
+  <si>
+    <t>Mycoplasmataceae</t>
+  </si>
+  <si>
+    <t>Spiroplasma</t>
+  </si>
+  <si>
+    <t>VBWQ01</t>
+  </si>
+  <si>
+    <t>Spiroplasma_D</t>
+  </si>
+  <si>
+    <t>Erysipelotrichaceae</t>
+  </si>
+  <si>
+    <t>Erysipelothrix</t>
+  </si>
+  <si>
+    <t>Coprobacillaceae</t>
+  </si>
+  <si>
+    <t>Coprobacillus</t>
+  </si>
+  <si>
+    <t>Bipolaricaulota</t>
+  </si>
+  <si>
+    <t>Bipolaricaulia</t>
+  </si>
+  <si>
+    <t>Bipolaricaulales</t>
+  </si>
+  <si>
+    <t>Bipolaricaulaceae</t>
+  </si>
+  <si>
+    <t>Bipolaricaulis</t>
+  </si>
+  <si>
+    <t>Caldisericota</t>
+  </si>
+  <si>
+    <t>Caldisericia</t>
+  </si>
+  <si>
+    <t>Caldisericales</t>
+  </si>
+  <si>
+    <t>Caldisericaceae</t>
+  </si>
+  <si>
+    <t>Caldisericum</t>
+  </si>
+  <si>
+    <t>Campylobacterota_A</t>
+  </si>
+  <si>
+    <t>Desulfurellia</t>
+  </si>
+  <si>
+    <t>Desulfurellales</t>
+  </si>
+  <si>
+    <t>Desulfurellaceae</t>
+  </si>
+  <si>
+    <t>Desulfurella</t>
+  </si>
+  <si>
+    <t>Chrysiogenota</t>
+  </si>
+  <si>
+    <t>Chrysiogenetes</t>
+  </si>
+  <si>
+    <t>Chrysiogenales</t>
+  </si>
+  <si>
+    <t>Chrysiogenaceae</t>
+  </si>
+  <si>
+    <t>Chrysiogenes</t>
+  </si>
+  <si>
+    <t>Cloacimonadota</t>
+  </si>
+  <si>
+    <t>Cloacimonadia</t>
+  </si>
+  <si>
+    <t>Cloacimonadales</t>
+  </si>
+  <si>
+    <t>Cloacimonadaceae</t>
+  </si>
+  <si>
+    <t>Cloacimonas</t>
+  </si>
+  <si>
+    <t>TCS61</t>
+  </si>
+  <si>
+    <t>Stygibacter</t>
+  </si>
+  <si>
+    <t>Coprothermobacterota</t>
+  </si>
+  <si>
+    <t>Coprothermobacteria</t>
+  </si>
+  <si>
+    <t>Coprothermobacterales</t>
+  </si>
+  <si>
+    <t>Coprothermobacteraceae</t>
+  </si>
+  <si>
+    <t>Coprothermobacter</t>
+  </si>
+  <si>
+    <t>Dependentiae</t>
+  </si>
+  <si>
+    <t>Babeliae</t>
+  </si>
+  <si>
+    <t>Babeliales</t>
+  </si>
+  <si>
+    <t>Babeliaceae</t>
+  </si>
+  <si>
+    <t>Babela</t>
+  </si>
+  <si>
+    <t>Desulfobacterota_B</t>
+  </si>
+  <si>
+    <t>Binatia</t>
+  </si>
+  <si>
+    <t>Binatales</t>
+  </si>
+  <si>
+    <t>Binataceae</t>
+  </si>
+  <si>
+    <t>Binatus</t>
+  </si>
+  <si>
+    <t>Desulfobacterota_C</t>
+  </si>
+  <si>
+    <t>Deferrisomatia</t>
+  </si>
+  <si>
+    <t>Deferrisomatales</t>
+  </si>
+  <si>
+    <t>Deferrisomataceae</t>
+  </si>
+  <si>
+    <t>Deferrisoma</t>
+  </si>
+  <si>
+    <t>Desulfobacterota_E</t>
+  </si>
+  <si>
+    <t>Deferrimicrobia</t>
+  </si>
+  <si>
+    <t>Deferrimicrobiales</t>
+  </si>
+  <si>
+    <t>Deferrimicrobiaceae</t>
+  </si>
+  <si>
+    <t>Deferrimicrobium</t>
+  </si>
+  <si>
+    <t>Desulfobacterota_G</t>
+  </si>
+  <si>
+    <t>Syntrophorhabdia</t>
+  </si>
+  <si>
+    <t>Syntrophorhabdales</t>
+  </si>
+  <si>
+    <t>Syntrophorhabdaceae</t>
+  </si>
+  <si>
+    <t>Syntrophorhabdus</t>
+  </si>
+  <si>
+    <t>Dictyoglomota</t>
+  </si>
+  <si>
+    <t>Dictyoglomia</t>
+  </si>
+  <si>
+    <t>Dictyoglomales</t>
+  </si>
+  <si>
+    <t>Dictyoglomaceae</t>
+  </si>
+  <si>
+    <t>Dictyoglomus</t>
+  </si>
+  <si>
+    <t>Electryoneota</t>
+  </si>
+  <si>
+    <t>Electryoneia</t>
+  </si>
+  <si>
+    <t>Electryoneales</t>
+  </si>
+  <si>
+    <t>Electryoneaceae</t>
+  </si>
+  <si>
+    <t>Electryonea</t>
+  </si>
+  <si>
+    <t>Eremiobacterota</t>
+  </si>
+  <si>
+    <t>Eremiobacteria</t>
+  </si>
+  <si>
+    <t>Eremiobacterales</t>
+  </si>
+  <si>
+    <t>Eremiobacteraceae</t>
+  </si>
+  <si>
+    <t>Eremiobacter</t>
+  </si>
+  <si>
+    <t>Baltobacterales</t>
+  </si>
+  <si>
+    <t>Baltobacteraceae</t>
+  </si>
+  <si>
+    <t>Zemynaea</t>
+  </si>
+  <si>
+    <t>Fermentibacterota</t>
+  </si>
+  <si>
+    <t>Fermentibacteria</t>
+  </si>
+  <si>
+    <t>Fermentibacterales</t>
+  </si>
+  <si>
+    <t>Fermentibacteraceae</t>
+  </si>
+  <si>
+    <t>Fermentibacter</t>
+  </si>
+  <si>
+    <t>Hinthialibacterota</t>
+  </si>
+  <si>
+    <t>Hinthialibacteria</t>
+  </si>
+  <si>
+    <t>Hinthialibacterales</t>
+  </si>
+  <si>
+    <t>Hinthialibacteraceae</t>
+  </si>
+  <si>
+    <t>Hinthialibacter</t>
+  </si>
+  <si>
+    <t>Hydrogenedentota</t>
+  </si>
+  <si>
+    <t>Hydrogenedentia</t>
+  </si>
+  <si>
+    <t>Hydrogenedentiales</t>
+  </si>
+  <si>
+    <t>Hydrogenedentaceae</t>
+  </si>
+  <si>
+    <t>Hydrogenedens</t>
+  </si>
+  <si>
+    <t>JACPWU01</t>
+  </si>
+  <si>
+    <t>Theseobacterales</t>
+  </si>
+  <si>
+    <t>Theseobacteraceae</t>
+  </si>
+  <si>
+    <t>Theseobacter</t>
+  </si>
+  <si>
+    <t>JAKLEM01</t>
+  </si>
+  <si>
+    <t>Ancaeobacteria</t>
+  </si>
+  <si>
+    <t>Ancaeobacterales</t>
+  </si>
+  <si>
+    <t>Ancaeobacteraceae</t>
+  </si>
+  <si>
+    <t>Ancaeobacter</t>
+  </si>
+  <si>
+    <t>Latescibacterota</t>
+  </si>
+  <si>
+    <t>Latescibacteria</t>
+  </si>
+  <si>
+    <t>Latescibacterales</t>
+  </si>
+  <si>
+    <t>Latescibacteraceae</t>
+  </si>
+  <si>
+    <t>Latescibacter</t>
+  </si>
+  <si>
+    <t>Lernaellota</t>
+  </si>
+  <si>
+    <t>Lernaellaia</t>
+  </si>
+  <si>
+    <t>Lernaellales</t>
+  </si>
+  <si>
+    <t>Lernaellaceae</t>
+  </si>
+  <si>
+    <t>Lernaella</t>
+  </si>
+  <si>
+    <t>Lithacetigenota</t>
+  </si>
+  <si>
+    <t>HKB111</t>
+  </si>
+  <si>
+    <t>Lithacetigena</t>
+  </si>
+  <si>
+    <t>Margulisbacteria</t>
+  </si>
+  <si>
+    <t>Termititenacia</t>
+  </si>
+  <si>
+    <t>Termititenacales</t>
+  </si>
+  <si>
+    <t>Termititenacaceae</t>
+  </si>
+  <si>
+    <t>Termititenax</t>
+  </si>
+  <si>
+    <t>Mcinerneyibacteriota</t>
+  </si>
+  <si>
+    <t>Mcinerneyibacteria</t>
+  </si>
+  <si>
+    <t>Mcinerneyibacteriales</t>
+  </si>
+  <si>
+    <t>Mcinerneyibacteriaceae</t>
+  </si>
+  <si>
+    <t>Mcinerneyibacterium</t>
+  </si>
+  <si>
+    <t>Methylomirabilota</t>
+  </si>
+  <si>
+    <t>Methylomirabilia</t>
+  </si>
+  <si>
+    <t>Methylomirabilales</t>
+  </si>
+  <si>
+    <t>Methylomirabilaceae</t>
+  </si>
+  <si>
+    <t>Methylomirabilis</t>
+  </si>
+  <si>
+    <t>Moduliflexota</t>
+  </si>
+  <si>
+    <t>Moduliflexia</t>
+  </si>
+  <si>
+    <t>Moduliflexales</t>
+  </si>
+  <si>
+    <t>Moduliflexaceae</t>
+  </si>
+  <si>
+    <t>Moduliflexus</t>
+  </si>
+  <si>
+    <t>Muiribacteriota</t>
+  </si>
+  <si>
+    <t>Muiribacteriia</t>
+  </si>
+  <si>
+    <t>Muiribacteriales</t>
+  </si>
+  <si>
+    <t>Muiribacteriaceae</t>
+  </si>
+  <si>
+    <t>Muiribacterium</t>
+  </si>
+  <si>
+    <t>Nitrospinota</t>
+  </si>
+  <si>
+    <t>Nitrospinia</t>
+  </si>
+  <si>
+    <t>Nitrospinales</t>
+  </si>
+  <si>
+    <t>Nitrospinaceae</t>
+  </si>
+  <si>
+    <t>Nitrospina</t>
+  </si>
+  <si>
+    <t>PUNC01</t>
+  </si>
+  <si>
+    <t>Erginobacteria</t>
+  </si>
+  <si>
+    <t>Erginobacterales</t>
+  </si>
+  <si>
+    <t>Erginobacteraceae</t>
+  </si>
+  <si>
+    <t>Euphemobacter</t>
+  </si>
+  <si>
+    <t>Riflebacteria</t>
+  </si>
+  <si>
+    <t>Ozemobacteria</t>
+  </si>
+  <si>
+    <t>Ozemobacterales</t>
+  </si>
+  <si>
+    <t>Ozemobacteraceae</t>
+  </si>
+  <si>
+    <t>Rifleibacterium</t>
+  </si>
+  <si>
+    <t>Sumerlaeota</t>
+  </si>
+  <si>
+    <t>Sumerlaeia</t>
+  </si>
+  <si>
+    <t>Sumerlaeales</t>
+  </si>
+  <si>
+    <t>Sumerlaeaceae</t>
+  </si>
+  <si>
+    <t>Sumerlaea</t>
+  </si>
+  <si>
+    <t>SZUA-79</t>
+  </si>
+  <si>
+    <t>Acidulodesulfobacterales</t>
+  </si>
+  <si>
+    <t>Acidulodesulfobacteraceae</t>
+  </si>
+  <si>
+    <t>Acidulodesulfobacterium</t>
+  </si>
+  <si>
+    <t>Acididesulfobacter</t>
+  </si>
+  <si>
+    <t>Tectomicrobia</t>
+  </si>
+  <si>
+    <t>Entotheonellia</t>
+  </si>
+  <si>
+    <t>Entotheonellales</t>
+  </si>
+  <si>
+    <t>Entotheonellaceae</t>
+  </si>
+  <si>
+    <t>Entotheonella</t>
+  </si>
+  <si>
+    <t>Thermodesulfobiota</t>
+  </si>
+  <si>
+    <t>Thermodesulfobiia</t>
+  </si>
+  <si>
+    <t>Thermodesulfobiales</t>
+  </si>
+  <si>
+    <t>Thermodesulfobiaceae</t>
+  </si>
+  <si>
+    <t>Thermodesulfobium</t>
+  </si>
+  <si>
+    <t>Thermosulfidibacterota</t>
+  </si>
+  <si>
+    <t>Thermosulfidibacteria</t>
+  </si>
+  <si>
+    <t>Thermosulfidibacterales</t>
+  </si>
+  <si>
+    <t>Thermosulfidibacteraceae</t>
+  </si>
+  <si>
+    <t>Thermosulfidibacter</t>
+  </si>
+  <si>
+    <t>UBA1439</t>
+  </si>
+  <si>
+    <t>Tritonobacteria</t>
+  </si>
+  <si>
+    <t>Tritonobacterales</t>
+  </si>
+  <si>
+    <t>Tritonobacteraceae</t>
+  </si>
+  <si>
+    <t>Tritonobacter</t>
+  </si>
+  <si>
+    <t>WOR-3</t>
+  </si>
+  <si>
+    <t>Hydrothermia</t>
+  </si>
+  <si>
+    <t>Hydrothermales</t>
+  </si>
+  <si>
+    <t>Hydrothermaceae</t>
+  </si>
+  <si>
+    <t>Hydrothermus</t>
+  </si>
+  <si>
+    <t>Bacteria</t>
+  </si>
+  <si>
+    <t>Atribacterota</t>
+  </si>
+  <si>
+    <t>Atribacteria</t>
+  </si>
+  <si>
+    <t>Atribacterales</t>
+  </si>
+  <si>
+    <t>Caldatribacteriaceae</t>
+  </si>
+  <si>
+    <t>Caldatribacterium</t>
+  </si>
+  <si>
+    <t>Atribacteraceae</t>
+  </si>
+  <si>
+    <t>Atribacter</t>
+  </si>
+  <si>
+    <t>Caldatribacterium californiense</t>
+  </si>
+  <si>
+    <t>Atribacter laminatus</t>
+  </si>
+  <si>
+    <t>Auribacter fodinae</t>
+  </si>
+  <si>
+    <t>Alkalicella caledoniensis</t>
+  </si>
+  <si>
+    <t>Anaerobranca californiensis</t>
+  </si>
+  <si>
+    <t>Natranaerofaba carboxydovora</t>
+  </si>
+  <si>
+    <t>Natranaerobius_A trueperi</t>
+  </si>
+  <si>
+    <t>Natranaerobius thermophilus</t>
+  </si>
+  <si>
+    <t>Dethiobacter alkaliphilus</t>
+  </si>
+  <si>
+    <t>Contubernalis alkalaceticum</t>
+  </si>
+  <si>
+    <t>Metamycoplasma hominis</t>
+  </si>
+  <si>
+    <t>Spiroplasma citri</t>
+  </si>
+  <si>
+    <t>Spiroplasma_D ixodetis</t>
+  </si>
+  <si>
+    <t>Erysipelothrix rhusiopathiae</t>
+  </si>
+  <si>
+    <t>Coprobacillus cateniformis</t>
+  </si>
+  <si>
+    <t>Bipolaricaulis anaerobius</t>
+  </si>
+  <si>
+    <t>Caldisericum exile</t>
+  </si>
+  <si>
+    <t>Desulfurella amilsii</t>
+  </si>
+  <si>
+    <t>Chrysiogenes arsenatis</t>
+  </si>
+  <si>
+    <t>Cloacimonas acidaminivorans</t>
+  </si>
+  <si>
+    <t>Stygibacter australis</t>
+  </si>
+  <si>
+    <t>Coprothermobacter platensis</t>
+  </si>
+  <si>
+    <t>Babela massiliensis</t>
+  </si>
+  <si>
+    <t>Binatus soli</t>
+  </si>
+  <si>
+    <t>Deferrisoma camini</t>
+  </si>
+  <si>
+    <t>Deferrimicrobium borealis</t>
+  </si>
+  <si>
+    <t>Syntrophorhabdus aromaticivorans</t>
+  </si>
+  <si>
+    <t>Dictyoglomus turgidum</t>
+  </si>
+  <si>
+    <t>Electryonea clarkiae</t>
+  </si>
+  <si>
+    <t>Eremiobacter antarcticus</t>
+  </si>
+  <si>
+    <t>Zemynaea palustris</t>
+  </si>
+  <si>
+    <t>Fermentibacter daniensis</t>
+  </si>
+  <si>
+    <t>Hinthialibacter antarcticus</t>
+  </si>
+  <si>
+    <t>Hydrogenedens terephthalicus</t>
+  </si>
+  <si>
+    <t>Theseobacter exili</t>
+  </si>
+  <si>
+    <t>Ancaeobacter aquaticus</t>
+  </si>
+  <si>
+    <t>Latescibacter anaerobius</t>
+  </si>
+  <si>
+    <t>Lernaella stagnicola</t>
+  </si>
+  <si>
+    <t>Lithacetigena formicireducens</t>
+  </si>
+  <si>
+    <t>Termititenax aidoneus</t>
+  </si>
+  <si>
+    <t>Mcinerneyibacterium aminivorans</t>
+  </si>
+  <si>
+    <t>Methylomirabilis oxygeniifera</t>
+  </si>
+  <si>
+    <t>Moduliflexus flocculans</t>
+  </si>
+  <si>
+    <t>Muiribacterium halophilum</t>
+  </si>
+  <si>
+    <t>Nitrospina gracilis</t>
+  </si>
+  <si>
+    <t>Euphemobacter frigidus</t>
+  </si>
+  <si>
+    <t>Rifleibacterium amylolyticum</t>
+  </si>
+  <si>
+    <t>Sumerlaea chitinivorans</t>
+  </si>
+  <si>
+    <t>Acidulodesulfobacterium ferriphilum</t>
+  </si>
+  <si>
+    <t>Acididesulfobacter guangdongensis</t>
+  </si>
+  <si>
+    <t>Entotheonella factor</t>
+  </si>
+  <si>
+    <t>Thermodesulfobium narugense</t>
+  </si>
+  <si>
+    <t>Thermodesulfobium acidiphilum</t>
+  </si>
+  <si>
+    <t>Thermosulfidibacter takaii</t>
+  </si>
+  <si>
+    <t>Tritonobacter lacicola</t>
+  </si>
+  <si>
+    <t>Hydrothermus pacificus</t>
+  </si>
+  <si>
+    <t>GCF_000353875.1</t>
+  </si>
+  <si>
+    <t>GCF_015775515.1</t>
+  </si>
+  <si>
+    <t>GCF_003599815.1</t>
+  </si>
+  <si>
+    <t>GCF_014467015.1</t>
+  </si>
+  <si>
+    <t>GCF_900142275.1</t>
+  </si>
+  <si>
+    <t>GCF_022539405.1</t>
+  </si>
+  <si>
+    <t>GCF_002216005.1</t>
+  </si>
+  <si>
+    <t>GCF_000020005.1</t>
+  </si>
+  <si>
+    <t>GCF_000174415.1</t>
+  </si>
+  <si>
+    <t>GCF_022558445.1</t>
+  </si>
+  <si>
+    <t>GCF_000085865.1</t>
+  </si>
+  <si>
+    <t>GCF_001886855.1</t>
+  </si>
+  <si>
+    <t>GCF_030316605.1</t>
+  </si>
+  <si>
+    <t>GCF_900637845.1</t>
+  </si>
+  <si>
+    <t>GCF_009767585.1</t>
+  </si>
+  <si>
+    <t>GCF_900465355.1</t>
+  </si>
+  <si>
+    <t>GCF_000284335.1</t>
+  </si>
+  <si>
+    <t>GCF_002119425.1</t>
+  </si>
+  <si>
+    <t>GCF_000469585.1</t>
+  </si>
+  <si>
+    <t>GCF_000146065.2</t>
+  </si>
+  <si>
+    <t>GCF_030765845.1</t>
+  </si>
+  <si>
+    <t>GCF_000378005.1</t>
+  </si>
+  <si>
+    <t>GCF_000513475.1</t>
+  </si>
+  <si>
+    <t>GCF_002479255.1</t>
+  </si>
+  <si>
+    <t>GCF_000526155.1</t>
+  </si>
+  <si>
+    <t>GCF_023617515.1</t>
+  </si>
+  <si>
+    <t>GCF_000512235.1</t>
+  </si>
+  <si>
+    <t>GCF_000021645.1</t>
+  </si>
+  <si>
+    <t>GCF_030765455.1</t>
+  </si>
+  <si>
+    <t>GCF_003244105.1</t>
+  </si>
+  <si>
+    <t>GCF_003134695.1</t>
+  </si>
+  <si>
+    <t>GCF_001618605.1</t>
+  </si>
+  <si>
+    <t>GCF_030765645.1</t>
+  </si>
+  <si>
+    <t>GCF_000493945.1</t>
+  </si>
+  <si>
+    <t>GCF_030765365.1</t>
+  </si>
+  <si>
+    <t>GCF_030765405.1</t>
+  </si>
+  <si>
+    <t>GCF_000403035.1</t>
+  </si>
+  <si>
+    <t>GCF_030765525.1</t>
+  </si>
+  <si>
+    <t>GCF_018725125.1</t>
+  </si>
+  <si>
+    <t>GCF_003864455.1</t>
+  </si>
+  <si>
+    <t>GCF_008086245.1</t>
+  </si>
+  <si>
+    <t>GCF_000091165.1</t>
+  </si>
+  <si>
+    <t>GCF_000739515.1</t>
+  </si>
+  <si>
+    <t>GCF_002869225.1</t>
+  </si>
+  <si>
+    <t>GCF_000341545.2</t>
+  </si>
+  <si>
+    <t>GCF_030765805.1</t>
+  </si>
+  <si>
+    <t>GCF_009917695.1</t>
+  </si>
+  <si>
+    <t>GCF_003290465.1</t>
+  </si>
+  <si>
+    <t>GCF_004195035.1</t>
+  </si>
+  <si>
+    <t>GCF_004195045.1</t>
+  </si>
+  <si>
+    <t>GCF_000522425.1</t>
+  </si>
+  <si>
+    <t>GCF_000212395.1</t>
+  </si>
+  <si>
+    <t>GCF_003057965.1</t>
+  </si>
+  <si>
+    <t>GCF_001547735.1</t>
+  </si>
+  <si>
+    <t>GCF_030765135.1</t>
+  </si>
+  <si>
+    <t>GCF_002011615.1</t>
+  </si>
+  <si>
+    <t>GCA_000353875.1</t>
+  </si>
+  <si>
+    <t>GCA_015775515.1</t>
+  </si>
+  <si>
+    <t>GCA_003599815.1</t>
+  </si>
+  <si>
+    <t>GCA_014467015.1</t>
+  </si>
+  <si>
+    <t>GCA_900142275.1</t>
+  </si>
+  <si>
+    <t>GCA_022539405.1</t>
+  </si>
+  <si>
+    <t>GCA_002216005.1</t>
+  </si>
+  <si>
+    <t>GCA_000020005.1</t>
+  </si>
+  <si>
+    <t>GCA_000174415.1</t>
+  </si>
+  <si>
+    <t>GCA_022558445.1</t>
+  </si>
+  <si>
+    <t>GCA_000085865.1</t>
+  </si>
+  <si>
+    <t>GCA_001886855.1</t>
+  </si>
+  <si>
+    <t>GCA_030316605.1</t>
+  </si>
+  <si>
+    <t>GCA_900637845.1</t>
+  </si>
+  <si>
+    <t>GCA_009767585.1</t>
+  </si>
+  <si>
+    <t>GCA_900465355.1</t>
+  </si>
+  <si>
+    <t>GCA_000284335.1</t>
+  </si>
+  <si>
+    <t>GCA_002119425.1</t>
+  </si>
+  <si>
+    <t>GCA_000469585.1</t>
+  </si>
+  <si>
+    <t>GCA_000146065.2</t>
+  </si>
+  <si>
+    <t>GCA_030765845.1</t>
+  </si>
+  <si>
+    <t>GCA_000378005.1</t>
+  </si>
+  <si>
+    <t>GCA_000513475.1</t>
+  </si>
+  <si>
+    <t>GCA_002479255.1</t>
+  </si>
+  <si>
+    <t>GCA_000526155.1</t>
+  </si>
+  <si>
+    <t>GCA_023617515.1</t>
+  </si>
+  <si>
+    <t>GCA_000512235.1</t>
+  </si>
+  <si>
+    <t>GCA_000021645.1</t>
+  </si>
+  <si>
+    <t>GCA_030765455.1</t>
+  </si>
+  <si>
+    <t>GCA_003244105.1</t>
+  </si>
+  <si>
+    <t>GCA_003134695.1</t>
+  </si>
+  <si>
+    <t>GCA_001618605.1</t>
+  </si>
+  <si>
+    <t>GCA_030765645.1</t>
+  </si>
+  <si>
+    <t>GCA_000493945.1</t>
+  </si>
+  <si>
+    <t>GCA_030765365.1</t>
+  </si>
+  <si>
+    <t>GCA_030765405.1</t>
+  </si>
+  <si>
+    <t>GCA_000403035.1</t>
+  </si>
+  <si>
+    <t>GCA_030765525.1</t>
+  </si>
+  <si>
+    <t>GCA_018725125.1</t>
+  </si>
+  <si>
+    <t>GCA_003864455.1</t>
+  </si>
+  <si>
+    <t>GCA_008086245.1</t>
+  </si>
+  <si>
+    <t>GCA_000091165.1</t>
+  </si>
+  <si>
+    <t>GCA_000739515.1</t>
+  </si>
+  <si>
+    <t>GCA_002869225.1</t>
+  </si>
+  <si>
+    <t>GCA_000341545.2</t>
+  </si>
+  <si>
+    <t>GCA_030765805.1</t>
+  </si>
+  <si>
+    <t>GCA_009917695.1</t>
+  </si>
+  <si>
+    <t>GCA_003290465.1</t>
+  </si>
+  <si>
+    <t>GCA_004195035.1</t>
+  </si>
+  <si>
+    <t>GCA_004195045.1</t>
+  </si>
+  <si>
+    <t>GCA_000522425.1</t>
+  </si>
+  <si>
+    <t>GCA_000212395.1</t>
+  </si>
+  <si>
+    <t>GCA_003057965.1</t>
+  </si>
+  <si>
+    <t>GCA_001547735.1</t>
+  </si>
+  <si>
+    <t>GCA_030765135.1</t>
+  </si>
+  <si>
+    <t>GCA_002011615.1</t>
+  </si>
+  <si>
+    <t>Has additional components, FlyY (E-ring), PflA-D; FlgY has ARM-like domains like FliG, as well as MgtE-N domain towards the C-terminus; also  PilZ family protein, FlgX (Chen et al. 2025, PNAS)</t>
+  </si>
+  <si>
+    <t>(SKIP)</t>
   </si>
 </sst>
 </file>
@@ -10275,13 +11676,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY439"/>
+  <dimension ref="A1:AY488"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P405" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="P217" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M429" sqref="M429"/>
+      <selection pane="bottomRight" activeCell="O234" sqref="O234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11472,6 +12873,9 @@
       <c r="P29" t="s">
         <v>58</v>
       </c>
+      <c r="Q29" t="s">
+        <v>3581</v>
+      </c>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
@@ -18436,7 +19840,7 @@
       <c r="D217" t="s">
         <v>1584</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="4" t="s">
         <v>1592</v>
       </c>
       <c r="F217" t="s">
@@ -22240,7 +23644,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="300" spans="2:34" ht="170" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:34" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
         <v>1942</v>
       </c>
@@ -30078,6 +31482,9 @@
       <c r="AY427" s="6"/>
     </row>
     <row r="428" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B428" s="6" t="s">
+        <v>3582</v>
+      </c>
       <c r="H428" s="6" t="s">
         <v>39</v>
       </c>
@@ -30096,8 +31503,10 @@
         <v>3085</v>
       </c>
     </row>
-    <row r="429" spans="1:51" ht="18" x14ac:dyDescent="0.2">
-      <c r="B429" s="9"/>
+    <row r="429" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B429" s="6" t="s">
+        <v>3582</v>
+      </c>
       <c r="H429" t="s">
         <v>39</v>
       </c>
@@ -30121,6 +31530,9 @@
       </c>
     </row>
     <row r="430" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B430" s="6" t="s">
+        <v>3582</v>
+      </c>
       <c r="H430" t="s">
         <v>39</v>
       </c>
@@ -30143,16 +31555,1837 @@
     <row r="431" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B431" s="4"/>
     </row>
-    <row r="433" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="433" spans="2:15" ht="18" x14ac:dyDescent="0.2">
       <c r="B433" s="9"/>
-    </row>
-    <row r="435" spans="2:2" ht="25" x14ac:dyDescent="0.25">
+      <c r="C433" t="s">
+        <v>3525</v>
+      </c>
+      <c r="D433" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E433" s="11" t="s">
+        <v>3117</v>
+      </c>
+      <c r="H433" s="11" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I433" s="11" t="s">
+        <v>3406</v>
+      </c>
+      <c r="J433" s="11" t="s">
+        <v>3407</v>
+      </c>
+      <c r="K433" s="11" t="s">
+        <v>3408</v>
+      </c>
+      <c r="L433" s="11" t="s">
+        <v>3409</v>
+      </c>
+      <c r="M433" s="11" t="s">
+        <v>3410</v>
+      </c>
+      <c r="N433" t="s">
+        <v>3413</v>
+      </c>
+      <c r="O433" s="11" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="434" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C434" t="s">
+        <v>3526</v>
+      </c>
+      <c r="D434" t="s">
+        <v>3470</v>
+      </c>
+      <c r="E434" t="s">
+        <v>3119</v>
+      </c>
+      <c r="H434" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I434" t="s">
+        <v>3406</v>
+      </c>
+      <c r="J434" t="s">
+        <v>3407</v>
+      </c>
+      <c r="K434" t="s">
+        <v>3408</v>
+      </c>
+      <c r="L434" t="s">
+        <v>3411</v>
+      </c>
+      <c r="M434" t="s">
+        <v>3412</v>
+      </c>
+      <c r="N434" t="s">
+        <v>3414</v>
+      </c>
+      <c r="O434" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="435" spans="2:15" ht="25" x14ac:dyDescent="0.25">
       <c r="B435" s="10"/>
-    </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C435" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D435" t="s">
+        <v>3471</v>
+      </c>
+      <c r="E435" t="s">
+        <v>3121</v>
+      </c>
+      <c r="H435" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I435" t="s">
+        <v>3181</v>
+      </c>
+      <c r="J435" t="s">
+        <v>3182</v>
+      </c>
+      <c r="K435" t="s">
+        <v>3183</v>
+      </c>
+      <c r="L435" t="s">
+        <v>3184</v>
+      </c>
+      <c r="M435" t="s">
+        <v>3185</v>
+      </c>
+      <c r="N435" t="s">
+        <v>3415</v>
+      </c>
+      <c r="O435" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="436" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C436" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D436" t="s">
+        <v>3472</v>
+      </c>
+      <c r="E436" t="s">
+        <v>3123</v>
+      </c>
+      <c r="H436" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I436" t="s">
+        <v>3186</v>
+      </c>
+      <c r="J436" t="s">
+        <v>3187</v>
+      </c>
+      <c r="K436" t="s">
+        <v>3188</v>
+      </c>
+      <c r="L436" t="s">
+        <v>3189</v>
+      </c>
+      <c r="M436" t="s">
+        <v>3190</v>
+      </c>
+      <c r="N436" t="s">
+        <v>3416</v>
+      </c>
+      <c r="O436" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="437" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C437" t="s">
+        <v>3529</v>
+      </c>
+      <c r="D437" t="s">
+        <v>3473</v>
+      </c>
+      <c r="E437" t="s">
+        <v>3125</v>
+      </c>
+      <c r="H437" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I437" t="s">
+        <v>3186</v>
+      </c>
+      <c r="J437" t="s">
+        <v>3187</v>
+      </c>
+      <c r="K437" t="s">
+        <v>3188</v>
+      </c>
+      <c r="L437" t="s">
+        <v>3189</v>
+      </c>
+      <c r="M437" t="s">
+        <v>3191</v>
+      </c>
+      <c r="N437" t="s">
+        <v>3417</v>
+      </c>
+      <c r="O437" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="438" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C438" t="s">
+        <v>3530</v>
+      </c>
+      <c r="D438" t="s">
+        <v>3474</v>
+      </c>
+      <c r="E438" t="s">
+        <v>3127</v>
+      </c>
+      <c r="H438" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I438" t="s">
+        <v>3186</v>
+      </c>
+      <c r="J438" t="s">
+        <v>3192</v>
+      </c>
+      <c r="K438" t="s">
+        <v>3193</v>
+      </c>
+      <c r="L438" t="s">
+        <v>3194</v>
+      </c>
+      <c r="M438" t="s">
+        <v>3195</v>
+      </c>
+      <c r="N438" t="s">
+        <v>3418</v>
+      </c>
+      <c r="O438" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="439" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B439" s="3"/>
+      <c r="C439" t="s">
+        <v>3531</v>
+      </c>
+      <c r="D439" t="s">
+        <v>3475</v>
+      </c>
+      <c r="E439" t="s">
+        <v>3129</v>
+      </c>
+      <c r="H439" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I439" t="s">
+        <v>3186</v>
+      </c>
+      <c r="J439" t="s">
+        <v>3192</v>
+      </c>
+      <c r="K439" t="s">
+        <v>3193</v>
+      </c>
+      <c r="L439" t="s">
+        <v>3196</v>
+      </c>
+      <c r="M439" t="s">
+        <v>3197</v>
+      </c>
+      <c r="N439" t="s">
+        <v>3419</v>
+      </c>
+      <c r="O439" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="440" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C440" t="s">
+        <v>3532</v>
+      </c>
+      <c r="D440" t="s">
+        <v>3476</v>
+      </c>
+      <c r="E440" t="s">
+        <v>3131</v>
+      </c>
+      <c r="H440" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I440" t="s">
+        <v>3186</v>
+      </c>
+      <c r="J440" t="s">
+        <v>3192</v>
+      </c>
+      <c r="K440" t="s">
+        <v>3193</v>
+      </c>
+      <c r="L440" t="s">
+        <v>3196</v>
+      </c>
+      <c r="M440" t="s">
+        <v>3198</v>
+      </c>
+      <c r="N440" t="s">
+        <v>3420</v>
+      </c>
+      <c r="O440" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="441" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C441" t="s">
+        <v>3533</v>
+      </c>
+      <c r="D441" t="s">
+        <v>3477</v>
+      </c>
+      <c r="E441" t="s">
+        <v>3132</v>
+      </c>
+      <c r="H441" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I441" t="s">
+        <v>3186</v>
+      </c>
+      <c r="J441" t="s">
+        <v>3199</v>
+      </c>
+      <c r="K441" t="s">
+        <v>3200</v>
+      </c>
+      <c r="L441" t="s">
+        <v>3201</v>
+      </c>
+      <c r="M441" t="s">
+        <v>3202</v>
+      </c>
+      <c r="N441" t="s">
+        <v>3421</v>
+      </c>
+      <c r="O441" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="442" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C442" t="s">
+        <v>3534</v>
+      </c>
+      <c r="D442" t="s">
+        <v>3478</v>
+      </c>
+      <c r="E442" t="s">
+        <v>3134</v>
+      </c>
+      <c r="H442" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I442" t="s">
+        <v>3186</v>
+      </c>
+      <c r="J442" t="s">
+        <v>3199</v>
+      </c>
+      <c r="K442" t="s">
+        <v>3203</v>
+      </c>
+      <c r="L442" t="s">
+        <v>3203</v>
+      </c>
+      <c r="M442" t="s">
+        <v>3204</v>
+      </c>
+      <c r="N442" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="443" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C443" t="s">
+        <v>3535</v>
+      </c>
+      <c r="D443" t="s">
+        <v>3479</v>
+      </c>
+      <c r="E443" t="s">
+        <v>3135</v>
+      </c>
+      <c r="H443" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I443" t="s">
+        <v>3205</v>
+      </c>
+      <c r="J443" t="s">
+        <v>3206</v>
+      </c>
+      <c r="K443" t="s">
+        <v>3207</v>
+      </c>
+      <c r="L443" t="s">
+        <v>3208</v>
+      </c>
+      <c r="M443" t="s">
+        <v>3209</v>
+      </c>
+      <c r="N443" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="444" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C444" t="s">
+        <v>3536</v>
+      </c>
+      <c r="D444" t="s">
+        <v>3480</v>
+      </c>
+      <c r="E444" t="s">
+        <v>3136</v>
+      </c>
+      <c r="H444" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I444" t="s">
+        <v>3205</v>
+      </c>
+      <c r="J444" t="s">
+        <v>3206</v>
+      </c>
+      <c r="K444" t="s">
+        <v>3207</v>
+      </c>
+      <c r="L444" t="s">
+        <v>3210</v>
+      </c>
+      <c r="M444" t="s">
+        <v>3211</v>
+      </c>
+      <c r="N444" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="445" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C445" t="s">
+        <v>3537</v>
+      </c>
+      <c r="D445" t="s">
+        <v>3481</v>
+      </c>
+      <c r="E445" t="s">
+        <v>3137</v>
+      </c>
+      <c r="H445" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I445" t="s">
+        <v>3205</v>
+      </c>
+      <c r="J445" t="s">
+        <v>3206</v>
+      </c>
+      <c r="K445" t="s">
+        <v>3207</v>
+      </c>
+      <c r="L445" t="s">
+        <v>3212</v>
+      </c>
+      <c r="M445" t="s">
+        <v>3213</v>
+      </c>
+      <c r="N445" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="446" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C446" t="s">
+        <v>3538</v>
+      </c>
+      <c r="D446" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E446" t="s">
+        <v>3138</v>
+      </c>
+      <c r="H446" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I446" t="s">
+        <v>3205</v>
+      </c>
+      <c r="J446" t="s">
+        <v>3206</v>
+      </c>
+      <c r="K446" t="s">
+        <v>1502</v>
+      </c>
+      <c r="L446" t="s">
+        <v>3214</v>
+      </c>
+      <c r="M446" t="s">
+        <v>3215</v>
+      </c>
+      <c r="N446" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="447" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C447" t="s">
+        <v>3539</v>
+      </c>
+      <c r="D447" t="s">
+        <v>3483</v>
+      </c>
+      <c r="E447" t="s">
+        <v>3139</v>
+      </c>
+      <c r="H447" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I447" t="s">
+        <v>3205</v>
+      </c>
+      <c r="J447" t="s">
+        <v>3206</v>
+      </c>
+      <c r="K447" t="s">
+        <v>1502</v>
+      </c>
+      <c r="L447" t="s">
+        <v>3216</v>
+      </c>
+      <c r="M447" t="s">
+        <v>3217</v>
+      </c>
+      <c r="N447" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="448" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C448" t="s">
+        <v>3540</v>
+      </c>
+      <c r="D448" t="s">
+        <v>3484</v>
+      </c>
+      <c r="E448" t="s">
+        <v>3140</v>
+      </c>
+      <c r="H448" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I448" t="s">
+        <v>3218</v>
+      </c>
+      <c r="J448" t="s">
+        <v>3219</v>
+      </c>
+      <c r="K448" t="s">
+        <v>3220</v>
+      </c>
+      <c r="L448" t="s">
+        <v>3221</v>
+      </c>
+      <c r="M448" t="s">
+        <v>3222</v>
+      </c>
+      <c r="N448" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="449" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C449" t="s">
+        <v>3541</v>
+      </c>
+      <c r="D449" t="s">
+        <v>3485</v>
+      </c>
+      <c r="E449" t="s">
+        <v>3141</v>
+      </c>
+      <c r="H449" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I449" t="s">
+        <v>3223</v>
+      </c>
+      <c r="J449" t="s">
+        <v>3224</v>
+      </c>
+      <c r="K449" t="s">
+        <v>3225</v>
+      </c>
+      <c r="L449" t="s">
+        <v>3226</v>
+      </c>
+      <c r="M449" t="s">
+        <v>3227</v>
+      </c>
+      <c r="N449" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="450" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C450" t="s">
+        <v>3542</v>
+      </c>
+      <c r="D450" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E450" t="s">
+        <v>3142</v>
+      </c>
+      <c r="H450" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I450" t="s">
+        <v>3228</v>
+      </c>
+      <c r="J450" t="s">
+        <v>3229</v>
+      </c>
+      <c r="K450" t="s">
+        <v>3230</v>
+      </c>
+      <c r="L450" t="s">
+        <v>3231</v>
+      </c>
+      <c r="M450" t="s">
+        <v>3232</v>
+      </c>
+      <c r="N450" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="451" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C451" t="s">
+        <v>3543</v>
+      </c>
+      <c r="D451" t="s">
+        <v>3487</v>
+      </c>
+      <c r="E451" t="s">
+        <v>3143</v>
+      </c>
+      <c r="H451" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I451" t="s">
+        <v>3233</v>
+      </c>
+      <c r="J451" t="s">
+        <v>3234</v>
+      </c>
+      <c r="K451" t="s">
+        <v>3235</v>
+      </c>
+      <c r="L451" t="s">
+        <v>3236</v>
+      </c>
+      <c r="M451" t="s">
+        <v>3237</v>
+      </c>
+      <c r="N451" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="452" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C452" t="s">
+        <v>3544</v>
+      </c>
+      <c r="D452" t="s">
+        <v>3488</v>
+      </c>
+      <c r="E452" t="s">
+        <v>3144</v>
+      </c>
+      <c r="H452" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I452" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J452" t="s">
+        <v>3239</v>
+      </c>
+      <c r="K452" t="s">
+        <v>3240</v>
+      </c>
+      <c r="L452" t="s">
+        <v>3241</v>
+      </c>
+      <c r="M452" t="s">
+        <v>3242</v>
+      </c>
+      <c r="N452" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="453" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C453" t="s">
+        <v>3545</v>
+      </c>
+      <c r="D453" t="s">
+        <v>3489</v>
+      </c>
+      <c r="E453" t="s">
+        <v>3145</v>
+      </c>
+      <c r="H453" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I453" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J453" t="s">
+        <v>3239</v>
+      </c>
+      <c r="K453" t="s">
+        <v>3240</v>
+      </c>
+      <c r="L453" t="s">
+        <v>3243</v>
+      </c>
+      <c r="M453" t="s">
+        <v>3244</v>
+      </c>
+      <c r="N453" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="454" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C454" t="s">
+        <v>3546</v>
+      </c>
+      <c r="D454" t="s">
+        <v>3490</v>
+      </c>
+      <c r="E454" t="s">
+        <v>3146</v>
+      </c>
+      <c r="H454" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I454" t="s">
+        <v>3245</v>
+      </c>
+      <c r="J454" t="s">
+        <v>3246</v>
+      </c>
+      <c r="K454" t="s">
+        <v>3247</v>
+      </c>
+      <c r="L454" t="s">
+        <v>3248</v>
+      </c>
+      <c r="M454" t="s">
+        <v>3249</v>
+      </c>
+      <c r="N454" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="455" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C455" t="s">
+        <v>3547</v>
+      </c>
+      <c r="D455" t="s">
+        <v>3491</v>
+      </c>
+      <c r="E455" t="s">
+        <v>3147</v>
+      </c>
+      <c r="H455" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I455" t="s">
+        <v>3250</v>
+      </c>
+      <c r="J455" t="s">
+        <v>3251</v>
+      </c>
+      <c r="K455" t="s">
+        <v>3252</v>
+      </c>
+      <c r="L455" t="s">
+        <v>3253</v>
+      </c>
+      <c r="M455" t="s">
+        <v>3254</v>
+      </c>
+      <c r="N455" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="456" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C456" t="s">
+        <v>3548</v>
+      </c>
+      <c r="D456" t="s">
+        <v>3492</v>
+      </c>
+      <c r="E456" t="s">
+        <v>3148</v>
+      </c>
+      <c r="H456" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I456" t="s">
+        <v>3255</v>
+      </c>
+      <c r="J456" t="s">
+        <v>3256</v>
+      </c>
+      <c r="K456" t="s">
+        <v>3257</v>
+      </c>
+      <c r="L456" t="s">
+        <v>3258</v>
+      </c>
+      <c r="M456" t="s">
+        <v>3259</v>
+      </c>
+      <c r="N456" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="457" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C457" t="s">
+        <v>3549</v>
+      </c>
+      <c r="D457" t="s">
+        <v>3493</v>
+      </c>
+      <c r="E457" t="s">
+        <v>3149</v>
+      </c>
+      <c r="H457" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I457" t="s">
+        <v>3260</v>
+      </c>
+      <c r="J457" t="s">
+        <v>3261</v>
+      </c>
+      <c r="K457" t="s">
+        <v>3262</v>
+      </c>
+      <c r="L457" t="s">
+        <v>3263</v>
+      </c>
+      <c r="M457" t="s">
+        <v>3264</v>
+      </c>
+      <c r="N457" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="458" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C458" t="s">
+        <v>3550</v>
+      </c>
+      <c r="D458" t="s">
+        <v>3494</v>
+      </c>
+      <c r="E458" t="s">
+        <v>3150</v>
+      </c>
+      <c r="H458" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I458" t="s">
+        <v>3265</v>
+      </c>
+      <c r="J458" t="s">
+        <v>3266</v>
+      </c>
+      <c r="K458" t="s">
+        <v>3267</v>
+      </c>
+      <c r="L458" t="s">
+        <v>3268</v>
+      </c>
+      <c r="M458" t="s">
+        <v>3269</v>
+      </c>
+      <c r="N458" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="459" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C459" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D459" t="s">
+        <v>3495</v>
+      </c>
+      <c r="E459" t="s">
+        <v>3151</v>
+      </c>
+      <c r="H459" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I459" t="s">
+        <v>3270</v>
+      </c>
+      <c r="J459" t="s">
+        <v>3271</v>
+      </c>
+      <c r="K459" t="s">
+        <v>3272</v>
+      </c>
+      <c r="L459" t="s">
+        <v>3273</v>
+      </c>
+      <c r="M459" t="s">
+        <v>3274</v>
+      </c>
+      <c r="N459" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="460" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C460" t="s">
+        <v>3552</v>
+      </c>
+      <c r="D460" t="s">
+        <v>3496</v>
+      </c>
+      <c r="E460" t="s">
+        <v>3152</v>
+      </c>
+      <c r="H460" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I460" t="s">
+        <v>3275</v>
+      </c>
+      <c r="J460" t="s">
+        <v>3276</v>
+      </c>
+      <c r="K460" t="s">
+        <v>3277</v>
+      </c>
+      <c r="L460" t="s">
+        <v>3278</v>
+      </c>
+      <c r="M460" t="s">
+        <v>3279</v>
+      </c>
+      <c r="N460" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="461" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C461" t="s">
+        <v>3553</v>
+      </c>
+      <c r="D461" t="s">
+        <v>3497</v>
+      </c>
+      <c r="E461" t="s">
+        <v>3153</v>
+      </c>
+      <c r="H461" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I461" t="s">
+        <v>3280</v>
+      </c>
+      <c r="J461" t="s">
+        <v>3281</v>
+      </c>
+      <c r="K461" t="s">
+        <v>3282</v>
+      </c>
+      <c r="L461" t="s">
+        <v>3283</v>
+      </c>
+      <c r="M461" t="s">
+        <v>3284</v>
+      </c>
+      <c r="N461" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="462" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C462" t="s">
+        <v>3554</v>
+      </c>
+      <c r="D462" t="s">
+        <v>3498</v>
+      </c>
+      <c r="E462" t="s">
+        <v>3154</v>
+      </c>
+      <c r="H462" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I462" t="s">
+        <v>3285</v>
+      </c>
+      <c r="J462" t="s">
+        <v>3286</v>
+      </c>
+      <c r="K462" t="s">
+        <v>3287</v>
+      </c>
+      <c r="L462" t="s">
+        <v>3288</v>
+      </c>
+      <c r="M462" t="s">
+        <v>3289</v>
+      </c>
+      <c r="N462" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="463" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C463" t="s">
+        <v>3555</v>
+      </c>
+      <c r="D463" t="s">
+        <v>3499</v>
+      </c>
+      <c r="E463" t="s">
+        <v>3155</v>
+      </c>
+      <c r="H463" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I463" t="s">
+        <v>3285</v>
+      </c>
+      <c r="J463" t="s">
+        <v>3286</v>
+      </c>
+      <c r="K463" t="s">
+        <v>3290</v>
+      </c>
+      <c r="L463" t="s">
+        <v>3291</v>
+      </c>
+      <c r="M463" t="s">
+        <v>3292</v>
+      </c>
+      <c r="N463" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="464" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C464" t="s">
+        <v>3556</v>
+      </c>
+      <c r="D464" t="s">
+        <v>3500</v>
+      </c>
+      <c r="E464" t="s">
+        <v>3156</v>
+      </c>
+      <c r="H464" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I464" t="s">
+        <v>3293</v>
+      </c>
+      <c r="J464" t="s">
+        <v>3294</v>
+      </c>
+      <c r="K464" t="s">
+        <v>3295</v>
+      </c>
+      <c r="L464" t="s">
+        <v>3296</v>
+      </c>
+      <c r="M464" t="s">
+        <v>3297</v>
+      </c>
+      <c r="N464" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="465" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C465" t="s">
+        <v>3557</v>
+      </c>
+      <c r="D465" t="s">
+        <v>3501</v>
+      </c>
+      <c r="E465" t="s">
+        <v>3157</v>
+      </c>
+      <c r="H465" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I465" t="s">
+        <v>3298</v>
+      </c>
+      <c r="J465" t="s">
+        <v>3299</v>
+      </c>
+      <c r="K465" t="s">
+        <v>3300</v>
+      </c>
+      <c r="L465" t="s">
+        <v>3301</v>
+      </c>
+      <c r="M465" t="s">
+        <v>3302</v>
+      </c>
+      <c r="N465" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="466" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C466" t="s">
+        <v>3558</v>
+      </c>
+      <c r="D466" t="s">
+        <v>3502</v>
+      </c>
+      <c r="E466" t="s">
+        <v>3158</v>
+      </c>
+      <c r="H466" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I466" t="s">
+        <v>3303</v>
+      </c>
+      <c r="J466" t="s">
+        <v>3304</v>
+      </c>
+      <c r="K466" t="s">
+        <v>3305</v>
+      </c>
+      <c r="L466" t="s">
+        <v>3306</v>
+      </c>
+      <c r="M466" t="s">
+        <v>3307</v>
+      </c>
+      <c r="N466" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="467" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C467" t="s">
+        <v>3559</v>
+      </c>
+      <c r="D467" t="s">
+        <v>3503</v>
+      </c>
+      <c r="E467" t="s">
+        <v>3159</v>
+      </c>
+      <c r="H467" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I467" t="s">
+        <v>3308</v>
+      </c>
+      <c r="J467" t="s">
+        <v>3308</v>
+      </c>
+      <c r="K467" t="s">
+        <v>3309</v>
+      </c>
+      <c r="L467" t="s">
+        <v>3310</v>
+      </c>
+      <c r="M467" t="s">
+        <v>3311</v>
+      </c>
+      <c r="N467" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="468" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C468" t="s">
+        <v>3560</v>
+      </c>
+      <c r="D468" t="s">
+        <v>3504</v>
+      </c>
+      <c r="E468" t="s">
+        <v>3160</v>
+      </c>
+      <c r="H468" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I468" t="s">
+        <v>3312</v>
+      </c>
+      <c r="J468" t="s">
+        <v>3313</v>
+      </c>
+      <c r="K468" t="s">
+        <v>3314</v>
+      </c>
+      <c r="L468" t="s">
+        <v>3315</v>
+      </c>
+      <c r="M468" t="s">
+        <v>3316</v>
+      </c>
+      <c r="N468" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="469" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C469" t="s">
+        <v>3561</v>
+      </c>
+      <c r="D469" t="s">
+        <v>3505</v>
+      </c>
+      <c r="E469" t="s">
+        <v>3161</v>
+      </c>
+      <c r="H469" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I469" t="s">
+        <v>3317</v>
+      </c>
+      <c r="J469" t="s">
+        <v>3318</v>
+      </c>
+      <c r="K469" t="s">
+        <v>3319</v>
+      </c>
+      <c r="L469" t="s">
+        <v>3320</v>
+      </c>
+      <c r="M469" t="s">
+        <v>3321</v>
+      </c>
+      <c r="N469" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="470" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C470" t="s">
+        <v>3562</v>
+      </c>
+      <c r="D470" t="s">
+        <v>3506</v>
+      </c>
+      <c r="E470" t="s">
+        <v>3162</v>
+      </c>
+      <c r="H470" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I470" t="s">
+        <v>3322</v>
+      </c>
+      <c r="J470" t="s">
+        <v>3323</v>
+      </c>
+      <c r="K470" t="s">
+        <v>3324</v>
+      </c>
+      <c r="L470" t="s">
+        <v>3325</v>
+      </c>
+      <c r="M470" t="s">
+        <v>3326</v>
+      </c>
+      <c r="N470" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="471" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C471" t="s">
+        <v>3563</v>
+      </c>
+      <c r="D471" t="s">
+        <v>3507</v>
+      </c>
+      <c r="E471" t="s">
+        <v>3163</v>
+      </c>
+      <c r="H471" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I471" t="s">
+        <v>3327</v>
+      </c>
+      <c r="J471" t="s">
+        <v>3328</v>
+      </c>
+      <c r="K471" t="s">
+        <v>3328</v>
+      </c>
+      <c r="L471" t="s">
+        <v>3328</v>
+      </c>
+      <c r="M471" t="s">
+        <v>3329</v>
+      </c>
+      <c r="N471" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="472" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C472" t="s">
+        <v>3564</v>
+      </c>
+      <c r="D472" t="s">
+        <v>3508</v>
+      </c>
+      <c r="E472" t="s">
+        <v>3164</v>
+      </c>
+      <c r="H472" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I472" t="s">
+        <v>3330</v>
+      </c>
+      <c r="J472" t="s">
+        <v>3331</v>
+      </c>
+      <c r="K472" t="s">
+        <v>3332</v>
+      </c>
+      <c r="L472" t="s">
+        <v>3333</v>
+      </c>
+      <c r="M472" t="s">
+        <v>3334</v>
+      </c>
+      <c r="N472" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="473" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C473" t="s">
+        <v>3565</v>
+      </c>
+      <c r="D473" t="s">
+        <v>3509</v>
+      </c>
+      <c r="E473" t="s">
+        <v>3165</v>
+      </c>
+      <c r="H473" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I473" t="s">
+        <v>3335</v>
+      </c>
+      <c r="J473" t="s">
+        <v>3336</v>
+      </c>
+      <c r="K473" t="s">
+        <v>3337</v>
+      </c>
+      <c r="L473" t="s">
+        <v>3338</v>
+      </c>
+      <c r="M473" t="s">
+        <v>3339</v>
+      </c>
+      <c r="N473" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="474" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C474" t="s">
+        <v>3566</v>
+      </c>
+      <c r="D474" t="s">
+        <v>3510</v>
+      </c>
+      <c r="E474" t="s">
+        <v>3166</v>
+      </c>
+      <c r="H474" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I474" t="s">
+        <v>3340</v>
+      </c>
+      <c r="J474" t="s">
+        <v>3341</v>
+      </c>
+      <c r="K474" t="s">
+        <v>3342</v>
+      </c>
+      <c r="L474" t="s">
+        <v>3343</v>
+      </c>
+      <c r="M474" t="s">
+        <v>3344</v>
+      </c>
+      <c r="N474" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="475" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C475" t="s">
+        <v>3567</v>
+      </c>
+      <c r="D475" t="s">
+        <v>3511</v>
+      </c>
+      <c r="E475" t="s">
+        <v>3167</v>
+      </c>
+      <c r="H475" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I475" t="s">
+        <v>3345</v>
+      </c>
+      <c r="J475" t="s">
+        <v>3346</v>
+      </c>
+      <c r="K475" t="s">
+        <v>3347</v>
+      </c>
+      <c r="L475" t="s">
+        <v>3348</v>
+      </c>
+      <c r="M475" t="s">
+        <v>3349</v>
+      </c>
+      <c r="N475" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="476" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C476" t="s">
+        <v>3568</v>
+      </c>
+      <c r="D476" t="s">
+        <v>3512</v>
+      </c>
+      <c r="E476" t="s">
+        <v>3168</v>
+      </c>
+      <c r="H476" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I476" t="s">
+        <v>3350</v>
+      </c>
+      <c r="J476" t="s">
+        <v>3351</v>
+      </c>
+      <c r="K476" t="s">
+        <v>3352</v>
+      </c>
+      <c r="L476" t="s">
+        <v>3353</v>
+      </c>
+      <c r="M476" t="s">
+        <v>3354</v>
+      </c>
+      <c r="N476" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="477" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C477" t="s">
+        <v>3569</v>
+      </c>
+      <c r="D477" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E477" t="s">
+        <v>3169</v>
+      </c>
+      <c r="H477" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I477" t="s">
+        <v>3355</v>
+      </c>
+      <c r="J477" t="s">
+        <v>3356</v>
+      </c>
+      <c r="K477" t="s">
+        <v>3357</v>
+      </c>
+      <c r="L477" t="s">
+        <v>3358</v>
+      </c>
+      <c r="M477" t="s">
+        <v>3359</v>
+      </c>
+      <c r="N477" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="478" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C478" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D478" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E478" t="s">
+        <v>3170</v>
+      </c>
+      <c r="H478" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I478" t="s">
+        <v>3360</v>
+      </c>
+      <c r="J478" t="s">
+        <v>3361</v>
+      </c>
+      <c r="K478" t="s">
+        <v>3362</v>
+      </c>
+      <c r="L478" t="s">
+        <v>3363</v>
+      </c>
+      <c r="M478" t="s">
+        <v>3364</v>
+      </c>
+      <c r="N478" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="479" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C479" t="s">
+        <v>3571</v>
+      </c>
+      <c r="D479" t="s">
+        <v>3515</v>
+      </c>
+      <c r="E479" t="s">
+        <v>3171</v>
+      </c>
+      <c r="H479" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I479" t="s">
+        <v>3365</v>
+      </c>
+      <c r="J479" t="s">
+        <v>3366</v>
+      </c>
+      <c r="K479" t="s">
+        <v>3367</v>
+      </c>
+      <c r="L479" t="s">
+        <v>3368</v>
+      </c>
+      <c r="M479" t="s">
+        <v>3369</v>
+      </c>
+      <c r="N479" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="480" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C480" t="s">
+        <v>3572</v>
+      </c>
+      <c r="D480" t="s">
+        <v>3516</v>
+      </c>
+      <c r="E480" t="s">
+        <v>3172</v>
+      </c>
+      <c r="H480" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I480" t="s">
+        <v>3370</v>
+      </c>
+      <c r="J480" t="s">
+        <v>3371</v>
+      </c>
+      <c r="K480" t="s">
+        <v>3372</v>
+      </c>
+      <c r="L480" t="s">
+        <v>3373</v>
+      </c>
+      <c r="M480" t="s">
+        <v>3374</v>
+      </c>
+      <c r="N480" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="481" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C481" t="s">
+        <v>3573</v>
+      </c>
+      <c r="D481" t="s">
+        <v>3517</v>
+      </c>
+      <c r="E481" t="s">
+        <v>3173</v>
+      </c>
+      <c r="H481" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I481" t="s">
+        <v>3375</v>
+      </c>
+      <c r="J481" t="s">
+        <v>3375</v>
+      </c>
+      <c r="K481" t="s">
+        <v>3376</v>
+      </c>
+      <c r="L481" t="s">
+        <v>3377</v>
+      </c>
+      <c r="M481" t="s">
+        <v>3378</v>
+      </c>
+      <c r="N481" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="482" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C482" t="s">
+        <v>3574</v>
+      </c>
+      <c r="D482" t="s">
+        <v>3518</v>
+      </c>
+      <c r="E482" t="s">
+        <v>3174</v>
+      </c>
+      <c r="H482" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I482" t="s">
+        <v>3375</v>
+      </c>
+      <c r="J482" t="s">
+        <v>3375</v>
+      </c>
+      <c r="K482" t="s">
+        <v>3376</v>
+      </c>
+      <c r="L482" t="s">
+        <v>3377</v>
+      </c>
+      <c r="M482" t="s">
+        <v>3379</v>
+      </c>
+      <c r="N482" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="483" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C483" t="s">
+        <v>3575</v>
+      </c>
+      <c r="D483" t="s">
+        <v>3519</v>
+      </c>
+      <c r="E483" t="s">
+        <v>3175</v>
+      </c>
+      <c r="H483" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I483" t="s">
+        <v>3380</v>
+      </c>
+      <c r="J483" t="s">
+        <v>3381</v>
+      </c>
+      <c r="K483" t="s">
+        <v>3382</v>
+      </c>
+      <c r="L483" t="s">
+        <v>3383</v>
+      </c>
+      <c r="M483" t="s">
+        <v>3384</v>
+      </c>
+      <c r="N483" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="484" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C484" t="s">
+        <v>3576</v>
+      </c>
+      <c r="D484" t="s">
+        <v>3520</v>
+      </c>
+      <c r="E484" t="s">
+        <v>3176</v>
+      </c>
+      <c r="H484" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I484" t="s">
+        <v>3385</v>
+      </c>
+      <c r="J484" t="s">
+        <v>3386</v>
+      </c>
+      <c r="K484" t="s">
+        <v>3387</v>
+      </c>
+      <c r="L484" t="s">
+        <v>3388</v>
+      </c>
+      <c r="M484" t="s">
+        <v>3389</v>
+      </c>
+      <c r="N484" t="s">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="485" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C485" t="s">
+        <v>3577</v>
+      </c>
+      <c r="D485" t="s">
+        <v>3521</v>
+      </c>
+      <c r="E485" t="s">
+        <v>3177</v>
+      </c>
+      <c r="H485" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I485" t="s">
+        <v>3385</v>
+      </c>
+      <c r="J485" t="s">
+        <v>3386</v>
+      </c>
+      <c r="K485" t="s">
+        <v>3387</v>
+      </c>
+      <c r="L485" t="s">
+        <v>3388</v>
+      </c>
+      <c r="M485" t="s">
+        <v>3389</v>
+      </c>
+      <c r="N485" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="486" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C486" t="s">
+        <v>3578</v>
+      </c>
+      <c r="D486" t="s">
+        <v>3522</v>
+      </c>
+      <c r="E486" t="s">
+        <v>3178</v>
+      </c>
+      <c r="H486" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I486" t="s">
+        <v>3390</v>
+      </c>
+      <c r="J486" t="s">
+        <v>3391</v>
+      </c>
+      <c r="K486" t="s">
+        <v>3392</v>
+      </c>
+      <c r="L486" t="s">
+        <v>3393</v>
+      </c>
+      <c r="M486" t="s">
+        <v>3394</v>
+      </c>
+      <c r="N486" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="487" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C487" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D487" t="s">
+        <v>3523</v>
+      </c>
+      <c r="E487" t="s">
+        <v>3179</v>
+      </c>
+      <c r="H487" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I487" t="s">
+        <v>3395</v>
+      </c>
+      <c r="J487" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K487" t="s">
+        <v>3397</v>
+      </c>
+      <c r="L487" t="s">
+        <v>3398</v>
+      </c>
+      <c r="M487" t="s">
+        <v>3399</v>
+      </c>
+      <c r="N487" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="488" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C488" t="s">
+        <v>3580</v>
+      </c>
+      <c r="D488" t="s">
+        <v>3524</v>
+      </c>
+      <c r="E488" t="s">
+        <v>3180</v>
+      </c>
+      <c r="H488" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I488" t="s">
+        <v>3400</v>
+      </c>
+      <c r="J488" t="s">
+        <v>3401</v>
+      </c>
+      <c r="K488" t="s">
+        <v>3402</v>
+      </c>
+      <c r="L488" t="s">
+        <v>3403</v>
+      </c>
+      <c r="M488" t="s">
+        <v>3404</v>
+      </c>
+      <c r="N488" t="s">
+        <v>3468</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E217" r:id="rId1" xr:uid="{51A0F8EC-EF98-4E4F-A85F-BA3CE0F2F17D}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
     <ignoredError sqref="O393" numberStoredAsText="1"/>

--- a/flag/AQB_classification/species_list_10071623_NJMh.xlsx
+++ b/flag/AQB_classification/species_list_10071623_NJMh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmat471/HD/GitHub/bioinfRhints/flag/AQB_classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0546FB1-4524-564D-92C6-56713F24FBD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D3A8F1-D37F-F645-9208-246F2C3DE4D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23520" yWindow="500" windowWidth="35160" windowHeight="20740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11679,10 +11679,10 @@
   <dimension ref="A1:AY488"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P217" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="P216" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O234" sqref="O234"/>
+      <selection pane="bottomRight" activeCell="F260" sqref="F260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/flag/AQB_classification/species_list_10071623_NJMh.xlsx
+++ b/flag/AQB_classification/species_list_10071623_NJMh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmat471/HD/GitHub/bioinfRhints/flag/AQB_classification/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmat471/Documents/GitHub/bioinfRhints/flag/AQB_classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D3A8F1-D37F-F645-9208-246F2C3DE4D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B4BBDA-6F68-1649-9EE8-ACDD07935302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23520" yWindow="500" windowWidth="35160" windowHeight="20740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31600" yWindow="-2620" windowWidth="28920" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species_list_10071623_NJMf" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6315" uniqueCount="3583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6327" uniqueCount="3591">
   <si>
     <t>Download script?</t>
   </si>
@@ -10774,6 +10774,30 @@
   </si>
   <si>
     <t>(SKIP)</t>
+  </si>
+  <si>
+    <t>Sporosarcina ureae</t>
+  </si>
+  <si>
+    <t>Sporosarcina</t>
+  </si>
+  <si>
+    <t>S204</t>
+  </si>
+  <si>
+    <t>GCA_002081995.1</t>
+  </si>
+  <si>
+    <t>GCF_002081995.1</t>
+  </si>
+  <si>
+    <t>wget -r –-no-host-directories --no-parent --no-directories --directory-prefix=GCA_002081995.1 ftp://ftp.ncbi.nlm.nih.gov/genomes/all/GCA/002/081/995/GCA_002081995.1_ASM208199v1</t>
+  </si>
+  <si>
+    <t>ASM208199v1</t>
+  </si>
+  <si>
+    <t>Caryophanaceae</t>
   </si>
 </sst>
 </file>
@@ -11304,7 +11328,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -11319,7 +11343,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -11380,9 +11403,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -11420,7 +11443,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -11526,7 +11549,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11668,7 +11691,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11676,13 +11699,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY488"/>
+  <dimension ref="A1:AY489"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P216" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="P465" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F260" sqref="F260"/>
+      <selection pane="bottomRight" activeCell="F489" sqref="F489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31028,7 +31051,7 @@
       <c r="J421" s="6"/>
       <c r="K421" s="6"/>
       <c r="L421" s="6"/>
-      <c r="Q421" s="12"/>
+      <c r="Q421" s="6"/>
       <c r="R421" s="6"/>
       <c r="S421" s="6"/>
       <c r="T421" s="6"/>
@@ -31102,16 +31125,16 @@
       <c r="O422" s="6" t="s">
         <v>3093</v>
       </c>
-      <c r="P422" s="12" t="s">
+      <c r="P422" s="6" t="s">
         <v>3098</v>
       </c>
-      <c r="Q422" s="12" t="s">
+      <c r="Q422" s="6" t="s">
         <v>3097</v>
       </c>
-      <c r="R422" s="12" t="s">
+      <c r="R422" s="6" t="s">
         <v>3099</v>
       </c>
-      <c r="S422" s="12" t="s">
+      <c r="S422" s="6" t="s">
         <v>3100</v>
       </c>
       <c r="T422" s="6"/>
@@ -31185,7 +31208,7 @@
       <c r="O423" s="6" t="s">
         <v>3104</v>
       </c>
-      <c r="P423" s="12" t="s">
+      <c r="P423" s="6" t="s">
         <v>3102</v>
       </c>
       <c r="Q423" s="6"/>
@@ -31259,7 +31282,7 @@
       <c r="O424" t="s">
         <v>1859</v>
       </c>
-      <c r="P424" s="12" t="s">
+      <c r="P424" s="6" t="s">
         <v>3103</v>
       </c>
       <c r="Q424" s="6"/>
@@ -31442,7 +31465,7 @@
       <c r="O427" s="6" t="s">
         <v>3108</v>
       </c>
-      <c r="P427" s="12" t="s">
+      <c r="P427" s="6" t="s">
         <v>3109</v>
       </c>
       <c r="Q427" s="6"/>
@@ -31496,10 +31519,10 @@
       </c>
       <c r="N428" s="6"/>
       <c r="O428" s="6"/>
-      <c r="P428" s="12" t="s">
+      <c r="P428" s="6" t="s">
         <v>3084</v>
       </c>
-      <c r="Q428" s="12" t="s">
+      <c r="Q428" s="6" t="s">
         <v>3085</v>
       </c>
     </row>
@@ -31519,13 +31542,13 @@
       </c>
       <c r="N429" s="6"/>
       <c r="O429" s="6"/>
-      <c r="P429" s="12" t="s">
+      <c r="P429" s="6" t="s">
         <v>3087</v>
       </c>
-      <c r="Q429" s="12" t="s">
+      <c r="Q429" s="6" t="s">
         <v>3088</v>
       </c>
-      <c r="R429" s="12" t="s">
+      <c r="R429" s="6" t="s">
         <v>3115</v>
       </c>
     </row>
@@ -31545,10 +31568,10 @@
       </c>
       <c r="N430" s="6"/>
       <c r="O430" s="6"/>
-      <c r="P430" s="12" t="s">
+      <c r="P430" s="6" t="s">
         <v>3090</v>
       </c>
-      <c r="Q430" s="12" t="s">
+      <c r="Q430" s="6" t="s">
         <v>3091</v>
       </c>
     </row>
@@ -33126,7 +33149,7 @@
         <v>3460</v>
       </c>
     </row>
-    <row r="481" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="481" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C481" t="s">
         <v>3573</v>
       </c>
@@ -33158,7 +33181,7 @@
         <v>3461</v>
       </c>
     </row>
-    <row r="482" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="482" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C482" t="s">
         <v>3574</v>
       </c>
@@ -33190,7 +33213,7 @@
         <v>3462</v>
       </c>
     </row>
-    <row r="483" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="483" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C483" t="s">
         <v>3575</v>
       </c>
@@ -33222,7 +33245,7 @@
         <v>3463</v>
       </c>
     </row>
-    <row r="484" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="484" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C484" t="s">
         <v>3576</v>
       </c>
@@ -33254,7 +33277,7 @@
         <v>3464</v>
       </c>
     </row>
-    <row r="485" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="485" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C485" t="s">
         <v>3577</v>
       </c>
@@ -33286,7 +33309,7 @@
         <v>3465</v>
       </c>
     </row>
-    <row r="486" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="486" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C486" t="s">
         <v>3578</v>
       </c>
@@ -33318,7 +33341,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="487" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="487" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C487" t="s">
         <v>3579</v>
       </c>
@@ -33350,7 +33373,7 @@
         <v>3467</v>
       </c>
     </row>
-    <row r="488" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="488" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C488" t="s">
         <v>3580</v>
       </c>
@@ -33380,6 +33403,44 @@
       </c>
       <c r="N488" t="s">
         <v>3468</v>
+      </c>
+    </row>
+    <row r="489" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C489" t="s">
+        <v>3586</v>
+      </c>
+      <c r="D489" t="s">
+        <v>3587</v>
+      </c>
+      <c r="E489" t="s">
+        <v>3588</v>
+      </c>
+      <c r="F489" t="s">
+        <v>3589</v>
+      </c>
+      <c r="H489" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I489" t="s">
+        <v>1916</v>
+      </c>
+      <c r="J489" t="s">
+        <v>134</v>
+      </c>
+      <c r="K489" t="s">
+        <v>135</v>
+      </c>
+      <c r="L489" t="s">
+        <v>3590</v>
+      </c>
+      <c r="M489" t="s">
+        <v>3584</v>
+      </c>
+      <c r="N489" t="s">
+        <v>3583</v>
+      </c>
+      <c r="O489" t="s">
+        <v>3585</v>
       </c>
     </row>
   </sheetData>
